--- a/results/comparaison/WM/depolarization/median_normalized.xlsx
+++ b/results/comparaison/WM/depolarization/median_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,47 +966,92 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1.004998485729397</v>
       </c>
+      <c r="C3">
+        <v>0.9489060862758661</v>
+      </c>
+      <c r="D3">
+        <v>0.9528029508472408</v>
+      </c>
       <c r="E3">
+        <v>1.000333978199248</v>
+      </c>
+      <c r="F3">
         <v>0.9961147858432577</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9899639617916376</v>
+      </c>
+      <c r="H3">
         <v>1.003596860031729</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.9526540204795436</v>
+      </c>
+      <c r="J3">
         <v>0.9956663440372839</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.00764570282768</v>
       </c>
-      <c r="K3">
-        <v>1.005971099237136</v>
+      <c r="L3">
+        <v>0.9860064430826756</v>
       </c>
       <c r="M3">
         <v>1.006614430509009</v>
       </c>
       <c r="N3">
+        <v>1.005971099237136</v>
+      </c>
+      <c r="O3">
+        <v>0.98904440268988</v>
+      </c>
+      <c r="P3">
         <v>0.9975902908159153</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.9964210456217801</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.004396994956372</v>
       </c>
       <c r="S3">
-        <v>0.9931613132829493</v>
+        <v>0.9681401147790645</v>
+      </c>
+      <c r="T3">
+        <v>0.9647684496176481</v>
+      </c>
+      <c r="U3">
+        <v>0.9877085912176785</v>
+      </c>
+      <c r="V3">
+        <v>0.9875283264693054</v>
       </c>
       <c r="W3">
         <v>0.9969695149873663</v>
       </c>
+      <c r="X3">
+        <v>1.000545653080265</v>
+      </c>
       <c r="Y3">
         <v>0.9956547960290978</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.9995765314068487</v>
       </c>
       <c r="AA3">
-        <v>0.9892914712652355</v>
+        <v>0.9711665465511022</v>
       </c>
       <c r="AB3">
-        <v>1.007622067040176</v>
+        <v>0.9893136466645609</v>
+      </c>
+      <c r="AC3">
+        <v>0.9557147662815383</v>
+      </c>
+      <c r="AD3">
+        <v>0.994740666044831</v>
+      </c>
+      <c r="AF3">
+        <v>1.005258963962468</v>
+      </c>
+      <c r="AG3">
+        <v>1.012691917401751</v>
+      </c>
+      <c r="AH3">
+        <v>0.9609893704989393</v>
+      </c>
+      <c r="AI3">
+        <v>1.005374816433446</v>
+      </c>
+      <c r="AJ3">
+        <v>1.007138821898188</v>
+      </c>
+      <c r="AL3">
+        <v>0.9933150246141221</v>
+      </c>
+      <c r="AM3">
+        <v>0.9753887278404958</v>
+      </c>
+      <c r="AN3">
+        <v>0.995699145008149</v>
+      </c>
+      <c r="AO3">
+        <v>1.025198253937815</v>
+      </c>
+      <c r="AP3">
+        <v>1.002070331456669</v>
       </c>
       <c r="AQ3">
-        <v>1.002782798965719</v>
+        <v>0.999783101042781</v>
       </c>
       <c r="AR3">
-        <v>0.9973526503927418</v>
+        <v>0.9969875463709889</v>
       </c>
       <c r="AS3">
-        <v>1.002686056390494</v>
+        <v>1.062684042523076</v>
       </c>
       <c r="AT3">
-        <v>0.994740666044831</v>
+        <v>1.017188045217942</v>
       </c>
       <c r="AU3">
-        <v>1.005258963962468</v>
+        <v>0.9843435407037235</v>
+      </c>
+      <c r="AV3">
+        <v>1.004543419339149</v>
       </c>
       <c r="AX3">
-        <v>1.005374816433446</v>
+        <v>0.9422223990843193</v>
+      </c>
+      <c r="AY3">
+        <v>1.028701610325962</v>
+      </c>
+      <c r="AZ3">
+        <v>1.006597153990014</v>
+      </c>
+      <c r="BA3">
+        <v>1.024158060818731</v>
       </c>
       <c r="BB3">
-        <v>1.015948762610981</v>
+        <v>1.017969869145677</v>
       </c>
       <c r="BC3">
-        <v>0.9970148607602174</v>
+        <v>0.9685985346526578</v>
+      </c>
+      <c r="BD3">
+        <v>1.005351666221357</v>
+      </c>
+      <c r="BE3">
+        <v>0.9904192629263667</v>
       </c>
       <c r="BF3">
-        <v>1.015719607522478</v>
+        <v>1.0187615461788</v>
+      </c>
+      <c r="BG3">
+        <v>1.002579668981311</v>
+      </c>
+      <c r="BH3">
+        <v>1.019464179077873</v>
       </c>
       <c r="BI3">
-        <v>1.012347998821578</v>
+        <v>1.053593809985595</v>
       </c>
       <c r="BJ3">
-        <v>1.020809949911709</v>
+        <v>0.9947918681272044</v>
       </c>
       <c r="BK3">
-        <v>1.016601820945316</v>
+        <v>1.000388358576103</v>
+      </c>
+      <c r="BM3">
+        <v>1.015681076768246</v>
+      </c>
+      <c r="BN3">
+        <v>1.016743264209539</v>
       </c>
       <c r="BO3">
-        <v>1.025051052148283</v>
+        <v>1.016520601694606</v>
       </c>
       <c r="BP3">
-        <v>1.007299638815466</v>
+        <v>1.033019014522124</v>
       </c>
       <c r="BQ3">
-        <v>1.022032772260211</v>
+        <v>0.9982915926386859</v>
       </c>
       <c r="BR3">
-        <v>1.009811548149924</v>
+        <v>1.02404875516961</v>
       </c>
       <c r="BS3">
-        <v>1.038221028245038</v>
+        <v>1.064632365549449</v>
+      </c>
+      <c r="BT3">
+        <v>1.008821102161681</v>
       </c>
       <c r="BU3">
-        <v>1.024032031105739</v>
+        <v>1.003206305358787</v>
       </c>
       <c r="BV3">
-        <v>1.000704655505356</v>
+        <v>0.9252074735688569</v>
+      </c>
+      <c r="BW3">
+        <v>1.022654205576302</v>
+      </c>
+      <c r="BX3">
+        <v>1.01358487205368</v>
+      </c>
+      <c r="BY3">
+        <v>1.007943644715575</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9901194007069207</v>
+      </c>
+      <c r="CA3">
+        <v>0.9759196159168324</v>
+      </c>
+      <c r="CB3">
+        <v>1.006940413908467</v>
+      </c>
+      <c r="CC3">
+        <v>0.9939186267217343</v>
+      </c>
+      <c r="CD3">
+        <v>0.9906048353680738</v>
+      </c>
+      <c r="CE3">
+        <v>0.9205269399789363</v>
+      </c>
+      <c r="CF3">
+        <v>1.005045881267678</v>
       </c>
       <c r="CG3">
-        <v>0.9992848968062233</v>
+        <v>1.096506523615565</v>
+      </c>
+      <c r="CH3">
+        <v>0.9656124276700576</v>
+      </c>
+      <c r="CI3">
+        <v>1.003086663519497</v>
       </c>
       <c r="CK3">
-        <v>0.9806768982971102</v>
+        <v>0.9947616974832728</v>
+      </c>
+      <c r="CL3">
+        <v>1.042453035379122</v>
+      </c>
+      <c r="CM3">
+        <v>1.021051045228991</v>
       </c>
       <c r="CN3">
-        <v>0.9762220782242751</v>
+        <v>1.094025167333005</v>
+      </c>
+      <c r="CO3">
+        <v>0.9958763141335562</v>
+      </c>
+      <c r="CP3">
+        <v>0.9955672931557583</v>
+      </c>
+      <c r="CQ3">
+        <v>1.01283250860532</v>
+      </c>
+      <c r="CR3">
+        <v>1.038987825899321</v>
+      </c>
+      <c r="CS3">
+        <v>1.061203433804177</v>
+      </c>
+      <c r="CT3">
+        <v>0.9637118560921032</v>
+      </c>
+      <c r="CU3">
+        <v>0.9675304273454099</v>
+      </c>
+      <c r="CV3">
+        <v>1.030035293940089</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1.011550549851733</v>
       </c>
+      <c r="C4">
+        <v>0.9651003445768116</v>
+      </c>
+      <c r="D4">
+        <v>0.9638152362387742</v>
+      </c>
       <c r="E4">
+        <v>1.010310154642442</v>
+      </c>
+      <c r="F4">
         <v>1.002348892426666</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.008863544273919</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1.0122564183436</v>
+      </c>
+      <c r="J4">
         <v>1.002562043876551</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1.020181079614986</v>
       </c>
-      <c r="K4">
-        <v>1.012841981531367</v>
+      <c r="L4">
+        <v>0.993847960675034</v>
       </c>
       <c r="M4">
         <v>1.014027024778851</v>
       </c>
       <c r="N4">
+        <v>1.012841981531367</v>
+      </c>
+      <c r="O4">
+        <v>0.9732436299684503</v>
+      </c>
+      <c r="P4">
         <v>1.004406777859401</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1.008110843235172</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1.012569977407463</v>
       </c>
       <c r="S4">
-        <v>1.004076054558762</v>
+        <v>0.9786280105026213</v>
+      </c>
+      <c r="T4">
+        <v>0.9763541033748235</v>
+      </c>
+      <c r="U4">
+        <v>0.9435695661431617</v>
+      </c>
+      <c r="V4">
+        <v>0.9762234283989635</v>
       </c>
       <c r="W4">
         <v>1.003622551489963</v>
       </c>
+      <c r="X4">
+        <v>0.9839971875703108</v>
+      </c>
       <c r="Y4">
         <v>1.002352668659646</v>
       </c>
       <c r="Z4">
         <v>1.006250294607842</v>
       </c>
+      <c r="AA4">
+        <v>0.9750540925146306</v>
+      </c>
       <c r="AB4">
-        <v>1.004890841913161</v>
+        <v>1.021082011111198</v>
+      </c>
+      <c r="AC4">
+        <v>0.9511104805438783</v>
+      </c>
+      <c r="AD4">
+        <v>1.000634331364671</v>
+      </c>
+      <c r="AF4">
+        <v>1.002257755039559</v>
+      </c>
+      <c r="AG4">
+        <v>1.021968904631852</v>
       </c>
       <c r="AH4">
+        <v>0.9706231994801439</v>
+      </c>
+      <c r="AI4">
+        <v>1.003589729765742</v>
+      </c>
+      <c r="AJ4">
+        <v>1.012901830738474</v>
+      </c>
+      <c r="AL4">
+        <v>0.9913078532222795</v>
+      </c>
+      <c r="AM4">
+        <v>0.978384120629527</v>
+      </c>
+      <c r="AN4">
         <v>0.9878458497294035</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>1.014699308881206</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>0.9991229267604627</v>
+      </c>
+      <c r="AQ4">
+        <v>0.9968967795073498</v>
+      </c>
+      <c r="AR4">
         <v>1.024476321880084</v>
       </c>
-      <c r="AM4">
-        <v>0.9941918974973142</v>
-      </c>
-      <c r="AQ4">
-        <v>1.002614572627521</v>
-      </c>
-      <c r="AR4">
-        <v>0.9942038368618532</v>
-      </c>
-      <c r="AS4">
-        <v>0.9996450688975925</v>
-      </c>
       <c r="AT4">
-        <v>1.000634331364671</v>
+        <v>1.016757188681164</v>
       </c>
       <c r="AU4">
-        <v>1.002257755039559</v>
-      </c>
-      <c r="AX4">
-        <v>1.003589729765742</v>
+        <v>1.027122562218094</v>
+      </c>
+      <c r="AV4">
+        <v>1.002656229128818</v>
+      </c>
+      <c r="AZ4">
+        <v>1.006655878345933</v>
+      </c>
+      <c r="BA4">
+        <v>1.020766213467311</v>
       </c>
       <c r="BB4">
-        <v>1.017898847619771</v>
+        <v>1.013333538758003</v>
       </c>
       <c r="BC4">
-        <v>0.9949831054701505</v>
+        <v>0.9567249107941086</v>
+      </c>
+      <c r="BD4">
+        <v>0.9851505485348917</v>
+      </c>
+      <c r="BE4">
+        <v>0.9840679226495267</v>
+      </c>
+      <c r="BF4">
+        <v>1.018361974132356</v>
+      </c>
+      <c r="BG4">
+        <v>1.002422842496825</v>
+      </c>
+      <c r="BH4">
+        <v>1.006285871080492</v>
       </c>
       <c r="BI4">
-        <v>1.014430439436977</v>
+        <v>1.052568627110682</v>
       </c>
       <c r="BJ4">
-        <v>1.010655603379632</v>
+        <v>0.977124324237896</v>
       </c>
       <c r="BK4">
-        <v>1.012228011918559</v>
+        <v>0.9766740190609849</v>
+      </c>
+      <c r="BL4">
+        <v>0.9791635066654867</v>
+      </c>
+      <c r="BM4">
+        <v>1.001251341522896</v>
+      </c>
+      <c r="BN4">
+        <v>0.9416152562292338</v>
+      </c>
+      <c r="BO4">
+        <v>1.016696258079525</v>
       </c>
       <c r="BP4">
-        <v>1.006940794659077</v>
-      </c>
-      <c r="BS4">
-        <v>1.034419779404769</v>
+        <v>1.026204058284704</v>
+      </c>
+      <c r="BQ4">
+        <v>0.998816909313038</v>
+      </c>
+      <c r="BR4">
+        <v>1.01917194714616</v>
+      </c>
+      <c r="BT4">
+        <v>1.009064696714109</v>
       </c>
       <c r="BU4">
-        <v>1.023869999415095</v>
+        <v>1.000828032538321</v>
       </c>
       <c r="BV4">
-        <v>1.008553115765007</v>
+        <v>0.9345786382009772</v>
+      </c>
+      <c r="BW4">
+        <v>1.023086511007894</v>
+      </c>
+      <c r="BX4">
+        <v>1.003004541526916</v>
+      </c>
+      <c r="BY4">
+        <v>1.023610702654489</v>
+      </c>
+      <c r="BZ4">
+        <v>0.9866714466513705</v>
+      </c>
+      <c r="CA4">
+        <v>0.9860289795733903</v>
+      </c>
+      <c r="CB4">
+        <v>1.033415324841017</v>
+      </c>
+      <c r="CC4">
+        <v>0.9861855336927273</v>
+      </c>
+      <c r="CD4">
+        <v>0.9870041182355077</v>
+      </c>
+      <c r="CE4">
+        <v>0.9169219395449988</v>
       </c>
       <c r="CF4">
-        <v>0.9885732984359372</v>
+        <v>1.016620429776457</v>
+      </c>
+      <c r="CG4">
+        <v>1.028071565262027</v>
       </c>
       <c r="CH4">
-        <v>0.9843378582252541</v>
+        <v>0.9648899799931885</v>
+      </c>
+      <c r="CI4">
+        <v>1.020768706544149</v>
       </c>
       <c r="CK4">
-        <v>0.9879341235449255</v>
+        <v>0.9939841424590814</v>
+      </c>
+      <c r="CL4">
+        <v>1.054612178101798</v>
+      </c>
+      <c r="CM4">
+        <v>0.9764192858466654</v>
       </c>
       <c r="CN4">
-        <v>0.9740350094176607</v>
+        <v>1.062123156698967</v>
+      </c>
+      <c r="CO4">
+        <v>0.9669690564584698</v>
+      </c>
+      <c r="CP4">
+        <v>0.9928020769001376</v>
+      </c>
+      <c r="CQ4">
+        <v>1.016340332152777</v>
+      </c>
+      <c r="CR4">
+        <v>1.026150022434949</v>
+      </c>
+      <c r="CS4">
+        <v>1.045685944595714</v>
+      </c>
+      <c r="CT4">
+        <v>0.9940714900639021</v>
+      </c>
+      <c r="CU4">
+        <v>1.007675766989554</v>
+      </c>
+      <c r="CV4">
+        <v>1.018482090672499</v>
+      </c>
+      <c r="CW4">
+        <v>1.003246372412687</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.006754754389159</v>
       </c>
+      <c r="C5">
+        <v>0.9535432504030202</v>
+      </c>
       <c r="D5">
+        <v>0.9379865265307827</v>
+      </c>
+      <c r="E5">
         <v>1.004039389554689</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9976469644072222</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.012957982860841</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.9764419400629198</v>
+      </c>
+      <c r="J5">
         <v>0.9966724353507399</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.012044829232857</v>
       </c>
-      <c r="K5">
-        <v>1.007140645344393</v>
+      <c r="L5">
+        <v>0.9667187715816209</v>
       </c>
       <c r="M5">
         <v>0.9978753005385117</v>
       </c>
       <c r="N5">
+        <v>1.007140645344393</v>
+      </c>
+      <c r="O5">
+        <v>0.9551881724884979</v>
+      </c>
+      <c r="P5">
         <v>0.9975144963849309</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.9942154103529283</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>1.008466795424894</v>
       </c>
       <c r="S5">
-        <v>0.9964929436301005</v>
+        <v>0.9570165574458991</v>
+      </c>
+      <c r="T5">
+        <v>0.9675101704257304</v>
+      </c>
+      <c r="U5">
+        <v>0.9275622266227991</v>
+      </c>
+      <c r="V5">
+        <v>0.9326633226055394</v>
       </c>
       <c r="W5">
         <v>0.9986145778434906</v>
       </c>
+      <c r="X5">
+        <v>0.9713802736719375</v>
+      </c>
       <c r="Y5">
         <v>0.9981757188643204</v>
       </c>
       <c r="Z5">
         <v>1.00135501225203</v>
       </c>
+      <c r="AA5">
+        <v>0.9774698367197475</v>
+      </c>
       <c r="AB5">
-        <v>1.000732326574552</v>
+        <v>0.9889718357598677</v>
+      </c>
+      <c r="AC5">
+        <v>0.9677693318144109</v>
+      </c>
+      <c r="AD5">
+        <v>0.9892191517657924</v>
+      </c>
+      <c r="AF5">
+        <v>0.9952823650836147</v>
+      </c>
+      <c r="AG5">
+        <v>1.01093376559611</v>
+      </c>
+      <c r="AH5">
+        <v>0.962600022426506</v>
+      </c>
+      <c r="AI5">
+        <v>0.9971793585615666</v>
+      </c>
+      <c r="AJ5">
+        <v>1.004152863385511</v>
+      </c>
+      <c r="AL5">
+        <v>0.9937000891043993</v>
+      </c>
+      <c r="AM5">
+        <v>0.9743681832350347</v>
+      </c>
+      <c r="AN5">
+        <v>0.9843895328212396</v>
+      </c>
+      <c r="AO5">
+        <v>1.011784662656469</v>
+      </c>
+      <c r="AP5">
+        <v>0.9952124727704146</v>
       </c>
       <c r="AQ5">
-        <v>0.9963846028789684</v>
+        <v>0.984389220208286</v>
       </c>
       <c r="AR5">
-        <v>0.9908340221882729</v>
+        <v>0.9979263768120837</v>
       </c>
       <c r="AS5">
-        <v>0.9899209059061914</v>
+        <v>1.04413952542758</v>
       </c>
       <c r="AT5">
-        <v>0.9892191517657924</v>
+        <v>1.011570996667903</v>
       </c>
       <c r="AU5">
-        <v>0.9952823650836147</v>
-      </c>
-      <c r="AX5">
-        <v>0.9971793585615666</v>
+        <v>0.9748313333438727</v>
+      </c>
+      <c r="AV5">
+        <v>0.9972503397767689</v>
+      </c>
+      <c r="AY5">
+        <v>0.9981676131873425</v>
+      </c>
+      <c r="AZ5">
+        <v>1.004254832577625</v>
+      </c>
+      <c r="BA5">
+        <v>1.022584766412673</v>
       </c>
       <c r="BB5">
-        <v>1.021755503077235</v>
+        <v>1.013692570800111</v>
       </c>
       <c r="BC5">
-        <v>0.9962687747786104</v>
+        <v>0.9617649674729727</v>
+      </c>
+      <c r="BD5">
+        <v>0.9917124497097869</v>
       </c>
       <c r="BE5">
-        <v>1.014340298537765</v>
+        <v>0.95381380474552</v>
+      </c>
+      <c r="BF5">
+        <v>1.018724915116674</v>
+      </c>
+      <c r="BG5">
+        <v>0.995473673030727</v>
+      </c>
+      <c r="BH5">
+        <v>0.9844536204963641</v>
       </c>
       <c r="BI5">
-        <v>1.015185403634668</v>
+        <v>1.048559971898336</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9677528714328337</v>
       </c>
       <c r="BK5">
-        <v>1.010431056789933</v>
+        <v>0.9405757519585173</v>
+      </c>
+      <c r="BM5">
+        <v>1.006244057822998</v>
+      </c>
+      <c r="BN5">
+        <v>0.982190765319976</v>
+      </c>
+      <c r="BO5">
+        <v>1.013042118450585</v>
       </c>
       <c r="BP5">
-        <v>1.009159079893404</v>
-      </c>
-      <c r="BS5">
-        <v>1.036287087975712</v>
+        <v>1.032678993824047</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9991301360882259</v>
+      </c>
+      <c r="BR5">
+        <v>1.021239625034964</v>
+      </c>
+      <c r="BT5">
+        <v>1.011059149212489</v>
       </c>
       <c r="BU5">
-        <v>1.024698571739224</v>
+        <v>1.002351501155725</v>
       </c>
       <c r="BV5">
-        <v>0.9968508567330072</v>
+        <v>0.9523560812231441</v>
+      </c>
+      <c r="BW5">
+        <v>1.023185538540942</v>
+      </c>
+      <c r="BX5">
+        <v>1.006250598178835</v>
+      </c>
+      <c r="BY5">
+        <v>1.024243742508191</v>
       </c>
       <c r="BZ5">
-        <v>1.061810540285317</v>
+        <v>0.987614353615813</v>
+      </c>
+      <c r="CA5">
+        <v>0.9790686358707625</v>
+      </c>
+      <c r="CB5">
+        <v>1.042376271948531</v>
       </c>
       <c r="CC5">
-        <v>1.049306342854385</v>
+        <v>1.003023945483885</v>
+      </c>
+      <c r="CD5">
+        <v>0.9918599391470152</v>
+      </c>
+      <c r="CE5">
+        <v>0.9375225470129421</v>
+      </c>
+      <c r="CF5">
+        <v>1.043128613425824</v>
+      </c>
+      <c r="CG5">
+        <v>1.108073033690937</v>
       </c>
       <c r="CH5">
-        <v>1.012741428221373</v>
+        <v>0.9691905550654126</v>
+      </c>
+      <c r="CI5">
+        <v>1.013679352302409</v>
       </c>
       <c r="CK5">
-        <v>0.9932297260680703</v>
+        <v>1.00540033763724</v>
+      </c>
+      <c r="CL5">
+        <v>1.013022580018859</v>
+      </c>
+      <c r="CM5">
+        <v>1.023678620594714</v>
+      </c>
+      <c r="CN5">
+        <v>1.099576056226394</v>
+      </c>
+      <c r="CO5">
+        <v>1.004867961265262</v>
       </c>
       <c r="CP5">
-        <v>1.037923999433588</v>
+        <v>0.9979679097042283</v>
+      </c>
+      <c r="CQ5">
+        <v>1.022039928919985</v>
+      </c>
+      <c r="CR5">
+        <v>1.048070904918693</v>
       </c>
       <c r="CS5">
-        <v>1.048070904918693</v>
+        <v>1.065031448810455</v>
+      </c>
+      <c r="CT5">
+        <v>0.9745924308765807</v>
+      </c>
+      <c r="CU5">
+        <v>0.9828771135854428</v>
+      </c>
+      <c r="CV5">
+        <v>1.039387363663485</v>
+      </c>
+      <c r="CW5">
+        <v>1.019442911712</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.005943584164812</v>
       </c>
+      <c r="C6">
+        <v>0.964438775636305</v>
+      </c>
+      <c r="D6">
+        <v>0.9284233869583211</v>
+      </c>
       <c r="E6">
+        <v>1.001251120440763</v>
+      </c>
+      <c r="F6">
         <v>1.000788947988659</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.019349649697413</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.8916802090189485</v>
+      </c>
+      <c r="J6">
         <v>0.9960747575282192</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.020530821837518</v>
       </c>
-      <c r="K6">
-        <v>1.005665655689571</v>
+      <c r="L6">
+        <v>0.9586913991492496</v>
       </c>
       <c r="M6">
         <v>0.9908155793100907</v>
       </c>
       <c r="N6">
+        <v>1.005665655689571</v>
+      </c>
+      <c r="O6">
+        <v>0.9290803133290397</v>
+      </c>
+      <c r="P6">
         <v>0.9959553442629565</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0.9882956841276763</v>
+      </c>
+      <c r="R6">
         <v>1.009760610369494</v>
       </c>
       <c r="S6">
-        <v>0.9938516991733324</v>
+        <v>0.9544371625689738</v>
+      </c>
+      <c r="T6">
+        <v>0.974469723925023</v>
+      </c>
+      <c r="U6">
+        <v>0.9291038649488365</v>
+      </c>
+      <c r="V6">
+        <v>0.8873585963609644</v>
       </c>
       <c r="W6">
         <v>0.9948219419453647</v>
       </c>
+      <c r="X6">
+        <v>0.8760530564298016</v>
+      </c>
       <c r="Y6">
         <v>0.9973284028160768</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>1.00352823545635</v>
       </c>
       <c r="AA6">
-        <v>0.9820471700879573</v>
+        <v>0.9754353670223416</v>
       </c>
       <c r="AB6">
-        <v>1.00847718657563</v>
+        <v>0.9752642625917903</v>
+      </c>
+      <c r="AC6">
+        <v>0.9539650050067978</v>
+      </c>
+      <c r="AD6">
+        <v>0.9896737622133778</v>
+      </c>
+      <c r="AF6">
+        <v>1.002515046151796</v>
+      </c>
+      <c r="AG6">
+        <v>1.00531300161836</v>
+      </c>
+      <c r="AH6">
+        <v>0.994809867285267</v>
+      </c>
+      <c r="AI6">
+        <v>1.001935603202776</v>
+      </c>
+      <c r="AJ6">
+        <v>1.008673066630396</v>
+      </c>
+      <c r="AK6">
+        <v>0.9578554143141514</v>
+      </c>
+      <c r="AL6">
+        <v>0.9837701475937783</v>
+      </c>
+      <c r="AM6">
+        <v>0.9799194385090368</v>
+      </c>
+      <c r="AN6">
+        <v>0.9948556478934185</v>
+      </c>
+      <c r="AO6">
+        <v>1.015651665282923</v>
+      </c>
+      <c r="AP6">
+        <v>1.002210177443378</v>
       </c>
       <c r="AQ6">
-        <v>1.003724160482202</v>
+        <v>0.9859683516208003</v>
       </c>
       <c r="AR6">
-        <v>0.9933329618374303</v>
+        <v>0.9909426832758499</v>
       </c>
       <c r="AS6">
-        <v>0.9938780934102502</v>
+        <v>1.0384715435329</v>
       </c>
       <c r="AT6">
-        <v>0.9896737622133778</v>
+        <v>1.020052270007743</v>
       </c>
       <c r="AU6">
-        <v>1.002515046151796</v>
+        <v>0.9807406128321807</v>
+      </c>
+      <c r="AV6">
+        <v>1.003910148496099</v>
+      </c>
+      <c r="AW6">
+        <v>0.934925743635017</v>
       </c>
       <c r="AX6">
-        <v>1.001935603202776</v>
+        <v>0.9480495742742659</v>
+      </c>
+      <c r="AY6">
+        <v>0.9735501662060644</v>
       </c>
       <c r="AZ6">
-        <v>1.040122383244226</v>
+        <v>0.9937251585616231</v>
+      </c>
+      <c r="BA6">
+        <v>1.006785412844042</v>
       </c>
       <c r="BB6">
-        <v>1.013153004667584</v>
+        <v>1.006309103204785</v>
+      </c>
+      <c r="BC6">
+        <v>0.9559347563119381</v>
+      </c>
+      <c r="BD6">
+        <v>0.9884686061860264</v>
       </c>
       <c r="BE6">
-        <v>1.006594510197561</v>
+        <v>0.9637902355955503</v>
+      </c>
+      <c r="BF6">
+        <v>1.010075576403755</v>
+      </c>
+      <c r="BG6">
+        <v>0.987846905832651</v>
+      </c>
+      <c r="BH6">
+        <v>0.9824956435438803</v>
       </c>
       <c r="BI6">
-        <v>1.006015588229005</v>
+        <v>1.040071009704337</v>
       </c>
       <c r="BJ6">
-        <v>1.013128581655915</v>
+        <v>0.9658415984765598</v>
       </c>
       <c r="BK6">
-        <v>1.00375001788226</v>
+        <v>0.9218525117023463</v>
+      </c>
+      <c r="BL6">
+        <v>0.9682732014925215</v>
+      </c>
+      <c r="BM6">
+        <v>1.005968095963007</v>
+      </c>
+      <c r="BN6">
+        <v>0.9614550663085807</v>
+      </c>
+      <c r="BO6">
+        <v>1.005029291180685</v>
       </c>
       <c r="BP6">
-        <v>1.00091459112464</v>
+        <v>1.023428774636467</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9957263346929782</v>
       </c>
       <c r="BR6">
-        <v>1.003591225480655</v>
+        <v>1.01996784008966</v>
       </c>
       <c r="BS6">
-        <v>1.031515564564534</v>
+        <v>1.049373187891185</v>
+      </c>
+      <c r="BT6">
+        <v>1.004728649618752</v>
       </c>
       <c r="BU6">
-        <v>1.014369289259542</v>
+        <v>1.000058252446471</v>
       </c>
       <c r="BV6">
-        <v>0.9915532843670077</v>
+        <v>0.9210557564172428</v>
+      </c>
+      <c r="BW6">
+        <v>1.015332935845176</v>
+      </c>
+      <c r="BX6">
+        <v>1.004062449493874</v>
+      </c>
+      <c r="BY6">
+        <v>0.999914963165862</v>
       </c>
       <c r="BZ6">
-        <v>1.051592672422486</v>
+        <v>0.9633906718655931</v>
       </c>
       <c r="CA6">
-        <v>0.9980297098461222</v>
+        <v>0.9683957255416201</v>
+      </c>
+      <c r="CB6">
+        <v>0.9967274447304194</v>
       </c>
       <c r="CC6">
-        <v>1.047037168116783</v>
+        <v>0.9950430321574383</v>
+      </c>
+      <c r="CD6">
+        <v>0.9817717083724665</v>
+      </c>
+      <c r="CE6">
+        <v>0.9154281513216805</v>
       </c>
       <c r="CF6">
-        <v>1.004535806914364</v>
+        <v>0.9955626172686762</v>
       </c>
       <c r="CG6">
-        <v>1.00290291245251</v>
+        <v>1.102617388312322</v>
       </c>
       <c r="CH6">
-        <v>0.9854578593682025</v>
+        <v>0.9603016101848523</v>
+      </c>
+      <c r="CI6">
+        <v>1.015177547977058</v>
       </c>
       <c r="CK6">
-        <v>0.981290692045975</v>
+        <v>1.000485928179575</v>
+      </c>
+      <c r="CL6">
+        <v>0.9866860116294152</v>
+      </c>
+      <c r="CM6">
+        <v>1.013962317590181</v>
       </c>
       <c r="CN6">
-        <v>0.9896270455885954</v>
+        <v>1.084734461877195</v>
+      </c>
+      <c r="CO6">
+        <v>0.9677233630386902</v>
       </c>
       <c r="CP6">
-        <v>1.028010701985563</v>
+        <v>0.9818024099488309</v>
+      </c>
+      <c r="CQ6">
+        <v>0.9923517325229133</v>
       </c>
       <c r="CR6">
-        <v>1.007534426240224</v>
+        <v>1.041975761075405</v>
       </c>
       <c r="CS6">
-        <v>1.041975761075405</v>
+        <v>1.035841746362931</v>
+      </c>
+      <c r="CT6">
+        <v>0.9462307228385464</v>
+      </c>
+      <c r="CU6">
+        <v>0.9608854409151377</v>
+      </c>
+      <c r="CV6">
+        <v>1.029582161232485</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.010751786465558</v>
       </c>
+      <c r="C7">
+        <v>0.9478866260777412</v>
+      </c>
+      <c r="D7">
+        <v>0.9509195377355182</v>
+      </c>
       <c r="E7">
+        <v>0.9772923175854699</v>
+      </c>
+      <c r="F7">
         <v>0.9989235380060163</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.015950996455422</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1.004599045342838</v>
+      </c>
+      <c r="J7">
         <v>0.9989713414053037</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.017266418659055</v>
       </c>
-      <c r="K7">
-        <v>1.008325096909214</v>
+      <c r="L7">
+        <v>0.968391672901208</v>
       </c>
       <c r="M7">
         <v>1.00248470817372</v>
       </c>
       <c r="N7">
+        <v>1.008325096909214</v>
+      </c>
+      <c r="O7">
+        <v>0.9438785981551554</v>
+      </c>
+      <c r="P7">
         <v>0.998336450308659</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.9996501554926014</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.007148846434816</v>
       </c>
       <c r="S7">
-        <v>1.000172778634131</v>
+        <v>0.9679290682173753</v>
+      </c>
+      <c r="T7">
+        <v>0.974733845746982</v>
+      </c>
+      <c r="U7">
+        <v>0.931743141336746</v>
+      </c>
+      <c r="V7">
+        <v>0.9542327212602637</v>
       </c>
       <c r="W7">
         <v>0.9994835099317395</v>
       </c>
+      <c r="X7">
+        <v>0.9727894814402208</v>
+      </c>
       <c r="Y7">
         <v>0.9976564797171437</v>
       </c>
       <c r="Z7">
         <v>1.000869189528186</v>
       </c>
+      <c r="AA7">
+        <v>0.9602810056139691</v>
+      </c>
       <c r="AB7">
-        <v>0.9940202022603825</v>
+        <v>1.010642420945413</v>
+      </c>
+      <c r="AC7">
+        <v>0.9706806287519166</v>
+      </c>
+      <c r="AD7">
+        <v>0.9874819189631006</v>
+      </c>
+      <c r="AE7">
+        <v>0.973878031717009</v>
+      </c>
+      <c r="AF7">
+        <v>0.9932239563597294</v>
+      </c>
+      <c r="AG7">
+        <v>1.017884577309002</v>
+      </c>
+      <c r="AH7">
+        <v>0.9981670569612563</v>
+      </c>
+      <c r="AI7">
+        <v>0.9964936101769054</v>
+      </c>
+      <c r="AJ7">
+        <v>1.004393433982453</v>
       </c>
       <c r="AK7">
+        <v>0.9820992090119434</v>
+      </c>
+      <c r="AL7">
+        <v>0.9897506769935668</v>
+      </c>
+      <c r="AM7">
+        <v>0.9747460388238179</v>
+      </c>
+      <c r="AN7">
+        <v>0.9809635027328356</v>
+      </c>
+      <c r="AO7">
+        <v>1.009368069549839</v>
+      </c>
+      <c r="AP7">
+        <v>0.9898902583026143</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9877906569926436</v>
+      </c>
+      <c r="AR7">
         <v>1.018096849875546</v>
       </c>
-      <c r="AQ7">
-        <v>0.9948118485717763</v>
-      </c>
-      <c r="AR7">
-        <v>0.9852732500038027</v>
-      </c>
       <c r="AS7">
-        <v>0.9856288749988884</v>
+        <v>1.035923013875698</v>
       </c>
       <c r="AT7">
-        <v>0.9874819189631006</v>
+        <v>1.006306192254703</v>
       </c>
       <c r="AU7">
-        <v>0.9932239563597294</v>
+        <v>1.014311459813139</v>
+      </c>
+      <c r="AV7">
+        <v>0.9937549405873306</v>
+      </c>
+      <c r="AW7">
+        <v>0.9255990996853426</v>
       </c>
       <c r="AX7">
-        <v>0.9964936101769054</v>
+        <v>0.9318811517323189</v>
+      </c>
+      <c r="AY7">
+        <v>0.9991445416897694</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9988644725236494</v>
+      </c>
+      <c r="BA7">
+        <v>1.015574494679032</v>
       </c>
       <c r="BB7">
-        <v>1.021344830070741</v>
+        <v>1.009713950696311</v>
       </c>
       <c r="BC7">
-        <v>0.996012743518462</v>
+        <v>0.9586770900886232</v>
+      </c>
+      <c r="BD7">
+        <v>0.9690475407244519</v>
+      </c>
+      <c r="BE7">
+        <v>0.967807324851221</v>
+      </c>
+      <c r="BF7">
+        <v>1.014685223976815</v>
+      </c>
+      <c r="BG7">
+        <v>0.9930391604278851</v>
+      </c>
+      <c r="BH7">
+        <v>0.9622463882269214</v>
       </c>
       <c r="BI7">
-        <v>1.012710477919956</v>
+        <v>1.031087892773618</v>
       </c>
       <c r="BJ7">
-        <v>1.007097798480616</v>
+        <v>0.9563678527818726</v>
       </c>
       <c r="BK7">
-        <v>1.00708932100714</v>
+        <v>0.9230890628995467</v>
+      </c>
+      <c r="BL7">
+        <v>1.001299819992587</v>
+      </c>
+      <c r="BM7">
+        <v>0.9978114131019498</v>
+      </c>
+      <c r="BN7">
+        <v>0.9505526297962668</v>
+      </c>
+      <c r="BO7">
+        <v>1.012538718394149</v>
       </c>
       <c r="BP7">
-        <v>1.002292035230742</v>
+        <v>1.012602604025225</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9990096925675083</v>
       </c>
       <c r="BR7">
-        <v>0.989339389061534</v>
-      </c>
-      <c r="BS7">
-        <v>1.033896665942162</v>
+        <v>1.021720403286063</v>
+      </c>
+      <c r="BT7">
+        <v>1.005815051695553</v>
       </c>
       <c r="BU7">
-        <v>1.024481855513677</v>
+        <v>1.001384680049908</v>
       </c>
       <c r="BV7">
-        <v>0.9938940732269336</v>
+        <v>0.9373120476471875</v>
+      </c>
+      <c r="BW7">
+        <v>1.020253877725627</v>
+      </c>
+      <c r="BX7">
+        <v>0.9863919873240796</v>
+      </c>
+      <c r="BY7">
+        <v>1.010442458490044</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9708138970741413</v>
+      </c>
+      <c r="CA7">
+        <v>0.9691643450648897</v>
+      </c>
+      <c r="CB7">
+        <v>1.007306920279987</v>
+      </c>
+      <c r="CC7">
+        <v>0.9985404782496614</v>
+      </c>
+      <c r="CD7">
+        <v>0.9779864768964948</v>
+      </c>
+      <c r="CE7">
+        <v>0.9270202600742108</v>
       </c>
       <c r="CF7">
-        <v>1.001992345587281</v>
+        <v>0.9911051795784596</v>
       </c>
       <c r="CG7">
-        <v>1.001766975622049</v>
+        <v>1.086169670267954</v>
       </c>
       <c r="CH7">
-        <v>0.9727278908960204</v>
+        <v>0.9618871751340891</v>
+      </c>
+      <c r="CI7">
+        <v>0.9856729232878798</v>
+      </c>
+      <c r="CK7">
+        <v>0.9991416586711463</v>
+      </c>
+      <c r="CL7">
+        <v>1.015467310331489</v>
+      </c>
+      <c r="CM7">
+        <v>1.013795307743253</v>
+      </c>
+      <c r="CN7">
+        <v>1.090131553777364</v>
+      </c>
+      <c r="CO7">
+        <v>0.991349167051406</v>
+      </c>
+      <c r="CP7">
+        <v>0.981810255224561</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9908364879766979</v>
+      </c>
+      <c r="CR7">
+        <v>1.042086362996937</v>
+      </c>
+      <c r="CS7">
+        <v>1.035933303851256</v>
+      </c>
+      <c r="CT7">
+        <v>0.9515563548176585</v>
+      </c>
+      <c r="CU7">
+        <v>0.9641267383636791</v>
+      </c>
+      <c r="CV7">
+        <v>1.020677806970806</v>
       </c>
     </row>
   </sheetData>
